--- a/03_mid_presentation/修論中間審査プログラム_最終版.xlsx
+++ b/03_mid_presentation/修論中間審査プログラム_最終版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\03_mid_presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -806,12 +806,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="25">
@@ -1130,7 +1136,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,6 +1313,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1653,8 +1665,8 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1970,7 +1982,7 @@
       <c r="J10" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="60" t="s">
         <v>49</v>
       </c>
       <c r="L10" s="45" t="s">
@@ -2010,7 +2022,7 @@
       <c r="J11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="60" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="45" t="s">
@@ -2670,7 +2682,7 @@
       <c r="D29" s="37">
         <v>37176049</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="59" t="s">
         <v>153</v>
       </c>
       <c r="F29" s="44" t="s">
@@ -2710,7 +2722,7 @@
       <c r="D30" s="37">
         <v>37176050</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="59" t="s">
         <v>155</v>
       </c>
       <c r="F30" s="44" t="s">
@@ -2750,7 +2762,7 @@
       <c r="D31" s="37">
         <v>37176054</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="59" t="s">
         <v>162</v>
       </c>
       <c r="F31" s="44" t="s">
@@ -2790,7 +2802,7 @@
       <c r="D32" s="37">
         <v>37176055</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="59" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="44" t="s">
@@ -2830,7 +2842,7 @@
       <c r="D33" s="37">
         <v>37176057</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="59" t="s">
         <v>166</v>
       </c>
       <c r="F33" s="44" t="s">
@@ -3020,7 +3032,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.35433070866141736" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.15748031496062992"/>
-  <pageSetup paperSize="8" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="81" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>